--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Benchmark/StartZoneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Benchmark/StartZoneConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/OfunaGames/MonsterChef2/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET8/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96637D62-7540-DC4B-AD32-E5C6C7733254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C453799-29B7-E146-8A45-B267A4CC5EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23600" yWindow="8880" windowWidth="24680" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23340" yWindow="8820" windowWidth="24680" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>DBConnection</t>
   </si>
@@ -80,27 +80,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mongodb://192.168.50.111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET_DEV</t>
-  </si>
-  <si>
-    <t>分区类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZoneType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号登录服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>mongodb://127.0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET1</t>
   </si>
 </sst>
 </file>
@@ -520,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" activeCellId="1" sqref="B4:E6 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -531,12 +515,11 @@
     <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="21" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="16">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -547,17 +530,14 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -568,16 +548,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1">
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -588,63 +565,62 @@
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="3">
+    <row r="4" spans="1:6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="B6" s="4">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="7" spans="1:6">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
